--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_quarter.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.08386773819799023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09158186888698275</v>
+        <v>0.1048539867316382</v>
       </c>
       <c r="H2" t="n">
-        <v>9.197971537972599</v>
+        <v>25.02302909863244</v>
       </c>
       <c r="I2" t="n">
-        <v>-37.84132372629033</v>
+        <v>-73.97306565948855</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1163557203900243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.099383767895737</v>
+        <v>0.09101976076376014</v>
       </c>
       <c r="H3" t="n">
-        <v>-14.58626394765752</v>
+        <v>-21.77457158216032</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.01542527876629707</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06107233110760591</v>
+        <v>-0.03485151532418401</v>
       </c>
       <c r="H4" t="n">
-        <v>295.9236784818683</v>
+        <v>-125.9376692778586</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.07185167403132267</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08180488725963438</v>
+        <v>-0.06184762211758178</v>
       </c>
       <c r="H5" t="n">
-        <v>13.8524444454457</v>
+        <v>13.92319949202543</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03554566505616424</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002297663130275266</v>
+        <v>0.01552484453078491</v>
       </c>
       <c r="H6" t="n">
-        <v>-93.53602436008772</v>
+        <v>-56.32422545406101</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.02029509832022692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02024466927350672</v>
+        <v>0.001583474222683695</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2484789475985867</v>
+        <v>-92.19775042377823</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1410978967445591</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1403076141634189</v>
+        <v>-0.1402592539175551</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5600952242193481</v>
+        <v>0.5943694742114293</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.1368870102181998</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1328110319750868</v>
+        <v>-0.1271473925996481</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.977622373821896</v>
+        <v>7.11507805088781</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1080271231374757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05855568347270095</v>
+        <v>-0.03246178750902648</v>
       </c>
       <c r="H10" t="n">
-        <v>-45.79538751746375</v>
+        <v>69.95033602096809</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0665408616371513</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07747402692711103</v>
+        <v>-0.0708121977820121</v>
       </c>
       <c r="H11" t="n">
-        <v>16.43075400733238</v>
+        <v>-6.419117576433695</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.415196323414642</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3210181662158484</v>
+        <v>-0.3157292477428361</v>
       </c>
       <c r="H12" t="n">
-        <v>-22.68280133702947</v>
+        <v>23.95663691185233</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.4488993880358551</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4898828087054942</v>
+        <v>-0.467953977649264</v>
       </c>
       <c r="H13" t="n">
-        <v>9.129756413560902</v>
+        <v>-4.24473503890964</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05073569601295556</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05657194269285222</v>
+        <v>-0.08385027641122184</v>
       </c>
       <c r="H14" t="n">
-        <v>11.50323566746055</v>
+        <v>-65.26880086519429</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08269143740784293</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04055224970404333</v>
+        <v>0.02058044575925375</v>
       </c>
       <c r="H15" t="n">
-        <v>-149.040445994469</v>
+        <v>124.8882428512505</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1460226857953172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1095215095956036</v>
+        <v>0.11911472718085</v>
       </c>
       <c r="H16" t="n">
-        <v>-24.99692154058719</v>
+        <v>-18.42724537486222</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1226214852840535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1581808343151193</v>
+        <v>0.1474446849492863</v>
       </c>
       <c r="H17" t="n">
-        <v>28.99928095691578</v>
+        <v>20.24376038809976</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.138457180644299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1107236063966935</v>
+        <v>0.1372178443256943</v>
       </c>
       <c r="H18" t="n">
-        <v>-20.03043404361522</v>
+        <v>-0.8951044018356646</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09540674480902199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1152853191793344</v>
+        <v>0.097961454324279</v>
       </c>
       <c r="H19" t="n">
-        <v>20.8356069689872</v>
+        <v>2.67770325920964</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.02563405214441146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03414849403269118</v>
+        <v>0.02764477448937599</v>
       </c>
       <c r="H20" t="n">
-        <v>33.21535682424665</v>
+        <v>7.843950436072178</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07516711252654941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06364033829107107</v>
+        <v>0.04241477322348758</v>
       </c>
       <c r="H21" t="n">
-        <v>-15.33486367646092</v>
+        <v>-43.57269848764449</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1217,10 +1217,10 @@
         <v>0.1004365069723881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09839942277662199</v>
+        <v>0.09187565468843437</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.028230826791039</v>
+        <v>-8.523645974971302</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1250,10 +1250,10 @@
         <v>0.1515465340033774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1688137257914719</v>
+        <v>0.2011942122054161</v>
       </c>
       <c r="H25" t="n">
-        <v>11.39398660724877</v>
+        <v>32.76068207599671</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1283,10 +1283,10 @@
         <v>0.07912471148881932</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07783806798066437</v>
+        <v>0.07060795724642746</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.626095670929253</v>
+        <v>-10.76370969592137</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1316,10 +1316,10 @@
         <v>0.09985262107691743</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07893355073959545</v>
+        <v>0.05825412313763535</v>
       </c>
       <c r="H27" t="n">
-        <v>-20.94994614233294</v>
+        <v>-41.65989584513596</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1349,10 +1349,10 @@
         <v>-0.2131191845751652</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.245283716011586</v>
+        <v>-0.2324902651729035</v>
       </c>
       <c r="H28" t="n">
-        <v>15.09227407215264</v>
+        <v>-9.089318090416343</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1382,10 +1382,10 @@
         <v>-0.2053066758478273</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2156959170072593</v>
+        <v>-0.201775765398231</v>
       </c>
       <c r="H29" t="n">
-        <v>5.060352332202029</v>
+        <v>1.71982252160831</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1415,10 +1415,10 @@
         <v>0.04413164265688801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06318913889297892</v>
+        <v>0.05660815975405609</v>
       </c>
       <c r="H30" t="n">
-        <v>43.18329227909771</v>
+        <v>28.27113686696355</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1448,10 +1448,10 @@
         <v>0.02633311185268182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01834364142095236</v>
+        <v>0.02997592756123089</v>
       </c>
       <c r="H31" t="n">
-        <v>-30.34001631264022</v>
+        <v>13.83359372385789</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1481,10 +1481,10 @@
         <v>0.09496050876403064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09594467493010869</v>
+        <v>0.08776827616742577</v>
       </c>
       <c r="H32" t="n">
-        <v>1.036395211954502</v>
+        <v>-7.573919611653512</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.1039648869556523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1239790670731418</v>
+        <v>0.1107265907508278</v>
       </c>
       <c r="H33" t="n">
-        <v>19.25090355364579</v>
+        <v>6.503834124361433</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1547,10 +1547,10 @@
         <v>0.04642769130193861</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02230504275212544</v>
+        <v>0.04539576030892353</v>
       </c>
       <c r="H34" t="n">
-        <v>-51.95745873498974</v>
+        <v>-2.222662734409952</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1580,10 +1580,10 @@
         <v>0.007576527544790857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02360876836397567</v>
+        <v>0.03150228623555582</v>
       </c>
       <c r="H35" t="n">
-        <v>211.6040722402913</v>
+        <v>315.7879193247942</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1613,10 +1613,10 @@
         <v>0.05773624592896012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07094171955934848</v>
+        <v>0.07279564033479483</v>
       </c>
       <c r="H36" t="n">
-        <v>22.87206834790861</v>
+        <v>26.08308552718183</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1646,10 +1646,10 @@
         <v>0.07032615937045415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04923370905428583</v>
+        <v>0.06352862012912477</v>
       </c>
       <c r="H37" t="n">
-        <v>-29.99232505369802</v>
+        <v>-9.665733636216741</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1679,10 +1679,10 @@
         <v>0.05238641136844833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.008018583803510983</v>
+        <v>0.02316099129221889</v>
       </c>
       <c r="H38" t="n">
-        <v>-84.69338976645292</v>
+        <v>-55.78816970431294</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1712,10 +1712,10 @@
         <v>0.02073732932611748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03161579224514264</v>
+        <v>0.006397086235182236</v>
       </c>
       <c r="H39" t="n">
-        <v>52.45836022541417</v>
+        <v>-69.15183177842735</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1745,10 +1745,10 @@
         <v>-0.008490989520810347</v>
       </c>
       <c r="G40" t="n">
-        <v>0.005188311048994695</v>
+        <v>0.0005753516362875627</v>
       </c>
       <c r="H40" t="n">
-        <v>-161.1037269128504</v>
+        <v>106.7760257491479</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1778,10 +1778,10 @@
         <v>0.03535585401105827</v>
       </c>
       <c r="G41" t="n">
-        <v>0.004358372004143806</v>
+        <v>0.009819843068733552</v>
       </c>
       <c r="H41" t="n">
-        <v>-87.67284194922675</v>
+        <v>-72.22569403736594</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1811,10 +1811,10 @@
         <v>0.1336861257851496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1463651917598372</v>
+        <v>0.1322269571980616</v>
       </c>
       <c r="H42" t="n">
-        <v>9.484204811997058</v>
+        <v>-1.091488423737454</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1844,10 +1844,10 @@
         <v>0.1489763344906571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.153582364881957</v>
+        <v>0.1449752262303823</v>
       </c>
       <c r="H43" t="n">
-        <v>3.091786629767551</v>
+        <v>-2.685734129487327</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1877,10 +1877,10 @@
         <v>-0.008511481271239187</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.009795153487373967</v>
+        <v>0.009475087163798891</v>
       </c>
       <c r="H44" t="n">
-        <v>15.08165471117685</v>
+        <v>211.3212478751</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1910,10 +1910,10 @@
         <v>-0.01097986505977733</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00595435246534652</v>
+        <v>0.005084800236594285</v>
       </c>
       <c r="H45" t="n">
-        <v>-154.2297417402621</v>
+        <v>146.3102252068789</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1943,10 +1943,10 @@
         <v>-0.003293045908710408</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.02640050117202174</v>
+        <v>-0.01057402027488038</v>
       </c>
       <c r="H46" t="n">
-        <v>701.7046194889053</v>
+        <v>-221.1015141608299</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>-0.009278481095242833</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02118437556347055</v>
+        <v>-0.02601085296065285</v>
       </c>
       <c r="H47" t="n">
-        <v>128.3172789383813</v>
+        <v>-180.3352476946778</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2009,10 +2009,10 @@
         <v>0.05027211201244799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.07062781936321999</v>
+        <v>0.06111628288279508</v>
       </c>
       <c r="H48" t="n">
-        <v>40.49105266500775</v>
+        <v>21.57094746220717</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2042,10 +2042,10 @@
         <v>0.0660647836333926</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06883108472974149</v>
+        <v>0.07175347568865321</v>
       </c>
       <c r="H49" t="n">
-        <v>4.187255212549659</v>
+        <v>8.610778303351996</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>0.1612576803179708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1448749779567276</v>
+        <v>0.1364161820132598</v>
       </c>
       <c r="H50" t="n">
-        <v>-10.15933153009487</v>
+        <v>-15.40484661302834</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2108,10 +2108,10 @@
         <v>0.1711149594717241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1725394447368766</v>
+        <v>0.1529660957478109</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8324726660662906</v>
+        <v>-10.60624026090028</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2141,10 +2141,10 @@
         <v>-0.1604310016173561</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1719612499359745</v>
+        <v>-0.1880782984102244</v>
       </c>
       <c r="H52" t="n">
-        <v>7.187045023953158</v>
+        <v>-17.23313855436111</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2174,10 +2174,10 @@
         <v>-0.1260545003542003</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1118045828806797</v>
+        <v>-0.1397260522627475</v>
       </c>
       <c r="H53" t="n">
-        <v>-11.30456860602341</v>
+        <v>-10.84574677630037</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2207,10 +2207,10 @@
         <v>0.09372239519925994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1199762213292631</v>
+        <v>0.1117980072647329</v>
       </c>
       <c r="H54" t="n">
-        <v>28.01232946958494</v>
+        <v>19.28633175351848</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2240,10 +2240,10 @@
         <v>0.113080746643218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08842815273517063</v>
+        <v>0.1107944668064794</v>
       </c>
       <c r="H55" t="n">
-        <v>-21.80087648857588</v>
+        <v>-2.021811762485136</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2273,10 +2273,10 @@
         <v>-0.007300771504361519</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01415002086074109</v>
+        <v>-0.01972015669265693</v>
       </c>
       <c r="H56" t="n">
-        <v>93.81541871688211</v>
+        <v>-170.1105859959596</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2306,10 +2306,10 @@
         <v>-0.02286739124119412</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01493465510475463</v>
+        <v>-0.02750377474479362</v>
       </c>
       <c r="H57" t="n">
-        <v>-34.69016667782017</v>
+        <v>-20.27508715225616</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2339,10 +2339,10 @@
         <v>0.05638797256277781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03891603467933753</v>
+        <v>0.04110046564293043</v>
       </c>
       <c r="H58" t="n">
-        <v>-30.98522094226466</v>
+        <v>-27.11129027174636</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2372,10 +2372,10 @@
         <v>0.07181992597016275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.064049297773599</v>
+        <v>0.08097584729081388</v>
       </c>
       <c r="H59" t="n">
-        <v>-10.81959928473335</v>
+        <v>12.74844160164536</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2405,10 +2405,10 @@
         <v>0.06997395344439951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.07219010815597937</v>
+        <v>0.06960502182728184</v>
       </c>
       <c r="H60" t="n">
-        <v>3.167113765182345</v>
+        <v>-0.5272413504702349</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2438,10 +2438,10 @@
         <v>0.04752678553020755</v>
       </c>
       <c r="G61" t="n">
-        <v>0.06866120701525537</v>
+        <v>0.08130271126037301</v>
       </c>
       <c r="H61" t="n">
-        <v>44.46844289861554</v>
+        <v>71.06713688578374</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>0.07296032751184069</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05767559117069607</v>
+        <v>0.05208887078238711</v>
       </c>
       <c r="H62" t="n">
-        <v>-20.94938011162857</v>
+        <v>-28.60658311335892</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2504,10 +2504,10 @@
         <v>0.06539350454256343</v>
       </c>
       <c r="G63" t="n">
-        <v>0.07629236826499351</v>
+        <v>0.0547461991295388</v>
       </c>
       <c r="H63" t="n">
-        <v>16.66658454638444</v>
+        <v>-16.28190060695477</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2537,10 +2537,10 @@
         <v>-0.04141550755634531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.01124531605702818</v>
+        <v>-0.005402420019937308</v>
       </c>
       <c r="H64" t="n">
-        <v>-72.84757154858224</v>
+        <v>86.95556244822697</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2570,10 +2570,10 @@
         <v>-0.04932370769039912</v>
       </c>
       <c r="G65" t="n">
-        <v>0.008856487009829116</v>
+        <v>-0.003915631975341612</v>
       </c>
       <c r="H65" t="n">
-        <v>-117.9558419764803</v>
+        <v>92.06135921508634</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2603,10 +2603,10 @@
         <v>0.01893397540736123</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04284090507868789</v>
+        <v>0.06823246015193106</v>
       </c>
       <c r="H66" t="n">
-        <v>126.2647128084471</v>
+        <v>260.3704910560059</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2636,10 +2636,10 @@
         <v>0.02614988585447288</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04314846136648993</v>
+        <v>0.05132886627199526</v>
       </c>
       <c r="H67" t="n">
-        <v>65.00439660278471</v>
+        <v>96.28715229445474</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2669,10 +2669,10 @@
         <v>0.0005699533762532117</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.02333529703250519</v>
+        <v>-0.03571448348794981</v>
       </c>
       <c r="H68" t="n">
-        <v>-4194.246653280299</v>
+        <v>-6366.211408857946</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2702,10 +2702,10 @@
         <v>-0.01291230679249397</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001167199316108566</v>
+        <v>-0.01942987367203679</v>
       </c>
       <c r="H69" t="n">
-        <v>-109.0394329600894</v>
+        <v>-50.47561976556766</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2735,10 +2735,10 @@
         <v>-0.02744806811673924</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.04670545239940368</v>
+        <v>-0.01992507918868098</v>
       </c>
       <c r="H70" t="n">
-        <v>70.15934309387806</v>
+        <v>27.40808167650369</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2768,10 +2768,10 @@
         <v>-0.05509195098979366</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07710150602078318</v>
+        <v>-0.06659038507724785</v>
       </c>
       <c r="H71" t="n">
-        <v>39.95058195536952</v>
+        <v>-20.87135031682649</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2801,10 +2801,10 @@
         <v>-0.1483341461777897</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.168781331796762</v>
+        <v>-0.1377918717084664</v>
       </c>
       <c r="H72" t="n">
-        <v>13.78454398117127</v>
+        <v>7.107112381721993</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2834,10 +2834,10 @@
         <v>-0.1447898360031475</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.161122403344253</v>
+        <v>-0.1766709723679629</v>
       </c>
       <c r="H73" t="n">
-        <v>11.28018912926352</v>
+        <v>-22.01890494863352</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2867,10 +2867,10 @@
         <v>0.1260511056358319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1380056758289698</v>
+        <v>0.1467574933048519</v>
       </c>
       <c r="H74" t="n">
-        <v>9.483907445980885</v>
+        <v>16.42697822012114</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2900,10 +2900,10 @@
         <v>0.1351719772156388</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1366526276200593</v>
+        <v>0.1383480723548173</v>
       </c>
       <c r="H75" t="n">
-        <v>1.095382663566744</v>
+        <v>2.349669809232495</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2933,10 +2933,10 @@
         <v>-0.03443794504108685</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09940856127453132</v>
+        <v>-0.0878560261411637</v>
       </c>
       <c r="H76" t="n">
-        <v>188.6599684038349</v>
+        <v>-155.1140204107573</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2966,10 +2966,10 @@
         <v>-0.04618700783972088</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.05443274255319879</v>
+        <v>-0.0620567886087444</v>
       </c>
       <c r="H77" t="n">
-        <v>17.85293115781051</v>
+        <v>-34.35983734667369</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2999,10 +2999,10 @@
         <v>0.09217153817668759</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09950148039648521</v>
+        <v>0.08608894621073446</v>
       </c>
       <c r="H78" t="n">
-        <v>7.952500701188836</v>
+        <v>-6.599208482658879</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3032,10 +3032,10 @@
         <v>0.0965044294726429</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08307667635112376</v>
+        <v>0.1063874414704065</v>
       </c>
       <c r="H79" t="n">
-        <v>-13.91413139779832</v>
+        <v>10.24099313551742</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3065,10 +3065,10 @@
         <v>-0.1624128583924336</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1919783972781764</v>
+        <v>-0.2137798715081172</v>
       </c>
       <c r="H80" t="n">
-        <v>18.20393974860316</v>
+        <v>-31.62743001023166</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3098,10 +3098,10 @@
         <v>-0.2164484580182171</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2299834598610407</v>
+        <v>-0.2049090135341464</v>
       </c>
       <c r="H81" t="n">
-        <v>6.253221652281049</v>
+        <v>5.33126666261559</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3131,10 +3131,10 @@
         <v>0.1387462790863944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1423156041170273</v>
+        <v>0.1652591466990643</v>
       </c>
       <c r="H82" t="n">
-        <v>2.572555497802109</v>
+        <v>19.1088855047139</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3164,10 +3164,10 @@
         <v>0.1646195949787939</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1818781044658936</v>
+        <v>0.1769682345928579</v>
       </c>
       <c r="H83" t="n">
-        <v>10.48387313145979</v>
+        <v>7.501318184906697</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3197,10 +3197,10 @@
         <v>0.01399502756006869</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03642988918176514</v>
+        <v>0.0191571265030936</v>
       </c>
       <c r="H84" t="n">
-        <v>160.3059481333836</v>
+        <v>36.88523599448757</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3230,10 +3230,10 @@
         <v>0.02263918370437177</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.001527625218311613</v>
+        <v>0.04087498526755463</v>
       </c>
       <c r="H85" t="n">
-        <v>-106.7477045032177</v>
+        <v>80.54973095015528</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_quarter.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.08386773819799023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1048539867316382</v>
+        <v>0.1025027763869769</v>
       </c>
       <c r="H2" t="n">
-        <v>25.02302909863244</v>
+        <v>22.21955496760163</v>
       </c>
       <c r="I2" t="n">
-        <v>-73.97306565948855</v>
+        <v>-51.5775013732102</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1163557203900243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09101976076376014</v>
+        <v>0.1133155111762229</v>
       </c>
       <c r="H3" t="n">
-        <v>-21.77457158216032</v>
+        <v>-2.612857540317413</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.01542527876629707</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03485151532418401</v>
+        <v>-0.06715218242078227</v>
       </c>
       <c r="H4" t="n">
-        <v>-125.9376692778586</v>
+        <v>-335.3385338325562</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.07185167403132267</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06184762211758178</v>
+        <v>-0.06749119842334067</v>
       </c>
       <c r="H5" t="n">
-        <v>13.92319949202543</v>
+        <v>6.068718184744195</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03554566505616424</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01552484453078491</v>
+        <v>0.01804675787153686</v>
       </c>
       <c r="H6" t="n">
-        <v>-56.32422545406101</v>
+        <v>-49.22937060532719</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.02029509832022692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001583474222683695</v>
+        <v>-0.006239031931259804</v>
       </c>
       <c r="H7" t="n">
-        <v>-92.19775042377823</v>
+        <v>-130.7415703674701</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1410978967445591</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1402592539175551</v>
+        <v>-0.1447150755211115</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5943694742114293</v>
+        <v>-2.563595106666171</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.1368870102181998</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1271473925996481</v>
+        <v>-0.1498241635018284</v>
       </c>
       <c r="H9" t="n">
-        <v>7.11507805088781</v>
+        <v>-9.450972201822946</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1080271231374757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03246178750902648</v>
+        <v>-0.07296410981027383</v>
       </c>
       <c r="H10" t="n">
-        <v>69.95033602096809</v>
+        <v>32.45760167340618</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0665408616371513</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0708121977820121</v>
+        <v>-0.1125935480041143</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.419117576433695</v>
+        <v>-69.20963334993955</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.415196323414642</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3157292477428361</v>
+        <v>-0.3441437782566001</v>
       </c>
       <c r="H12" t="n">
-        <v>23.95663691185233</v>
+        <v>17.11299959828504</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.4488993880358551</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.467953977649264</v>
+        <v>-0.4213463864745443</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.24473503890964</v>
+        <v>6.137901341738974</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05073569601295556</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.08385027641122184</v>
+        <v>-0.06646568423815459</v>
       </c>
       <c r="H14" t="n">
-        <v>-65.26880086519429</v>
+        <v>-31.0037891688375</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08269143740784293</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02058044575925375</v>
+        <v>0.05104570234941084</v>
       </c>
       <c r="H15" t="n">
-        <v>124.8882428512505</v>
+        <v>161.7303362349937</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1460226857953172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.11911472718085</v>
+        <v>0.09843664764422394</v>
       </c>
       <c r="H16" t="n">
-        <v>-18.42724537486222</v>
+        <v>-32.58811320440682</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1226214852840535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1474446849492863</v>
+        <v>0.1613556916008601</v>
       </c>
       <c r="H17" t="n">
-        <v>20.24376038809976</v>
+        <v>31.58843348462021</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.138457180644299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1372178443256943</v>
+        <v>0.1381801339839694</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.8951044018356646</v>
+        <v>-0.2000955523147199</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09540674480902199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.097961454324279</v>
+        <v>0.1280312699007649</v>
       </c>
       <c r="H19" t="n">
-        <v>2.67770325920964</v>
+        <v>34.19519778926346</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.02563405214441146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02764477448937599</v>
+        <v>0.01988877917143014</v>
       </c>
       <c r="H20" t="n">
-        <v>7.843950436072178</v>
+        <v>-22.41266008438647</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07516711252654941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04241477322348758</v>
+        <v>0.03348184890156319</v>
       </c>
       <c r="H21" t="n">
-        <v>-43.57269848764449</v>
+        <v>-55.45678452163874</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1217,10 +1217,10 @@
         <v>0.1004365069723881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09187565468843437</v>
+        <v>0.1035953615945692</v>
       </c>
       <c r="H24" t="n">
-        <v>-8.523645974971302</v>
+        <v>3.14512592821406</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1250,10 +1250,10 @@
         <v>0.1515465340033774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2011942122054161</v>
+        <v>0.1533948793181145</v>
       </c>
       <c r="H25" t="n">
-        <v>32.76068207599671</v>
+        <v>1.219655287329703</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1283,10 +1283,10 @@
         <v>0.07912471148881932</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07060795724642746</v>
+        <v>0.07817252341080842</v>
       </c>
       <c r="H26" t="n">
-        <v>-10.76370969592137</v>
+        <v>-1.2034016429184</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1316,10 +1316,10 @@
         <v>0.09985262107691743</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05825412313763535</v>
+        <v>0.0772204763637018</v>
       </c>
       <c r="H27" t="n">
-        <v>-41.65989584513596</v>
+        <v>-22.66554895517652</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1349,10 +1349,10 @@
         <v>-0.2131191845751652</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2324902651729035</v>
+        <v>-0.2317431113365898</v>
       </c>
       <c r="H28" t="n">
-        <v>-9.089318090416343</v>
+        <v>-8.738737809338845</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1382,10 +1382,10 @@
         <v>-0.2053066758478273</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.201775765398231</v>
+        <v>-0.1754012841147151</v>
       </c>
       <c r="H29" t="n">
-        <v>1.71982252160831</v>
+        <v>14.56620521939482</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1415,10 +1415,10 @@
         <v>0.04413164265688801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05660815975405609</v>
+        <v>0.05034708199228426</v>
       </c>
       <c r="H30" t="n">
-        <v>28.27113686696355</v>
+        <v>14.08386128683146</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1448,10 +1448,10 @@
         <v>0.02633311185268182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02997592756123089</v>
+        <v>0.02985552001031537</v>
       </c>
       <c r="H31" t="n">
-        <v>13.83359372385789</v>
+        <v>13.37634601386778</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1481,10 +1481,10 @@
         <v>0.09496050876403064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08776827616742577</v>
+        <v>0.09921783541826959</v>
       </c>
       <c r="H32" t="n">
-        <v>-7.573919611653512</v>
+        <v>4.483260156933307</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.1039648869556523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1107265907508278</v>
+        <v>0.1162509996657865</v>
       </c>
       <c r="H33" t="n">
-        <v>6.503834124361433</v>
+        <v>11.81755982226482</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1547,10 +1547,10 @@
         <v>0.04642769130193861</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04539576030892353</v>
+        <v>0.02134662738435218</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.222662734409952</v>
+        <v>-54.0217771210587</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1580,10 +1580,10 @@
         <v>0.007576527544790857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03150228623555582</v>
+        <v>0.02457999633784065</v>
       </c>
       <c r="H35" t="n">
-        <v>315.7879193247942</v>
+        <v>224.4229786340618</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1613,10 +1613,10 @@
         <v>0.05773624592896012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07279564033479483</v>
+        <v>0.05281910749423492</v>
       </c>
       <c r="H36" t="n">
-        <v>26.08308552718183</v>
+        <v>-8.516553779363056</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1646,10 +1646,10 @@
         <v>0.07032615937045415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06352862012912477</v>
+        <v>0.06939669136618949</v>
       </c>
       <c r="H37" t="n">
-        <v>-9.665733636216741</v>
+        <v>-1.32165329741461</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1679,10 +1679,10 @@
         <v>0.05238641136844833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02316099129221889</v>
+        <v>0.01717896915461914</v>
       </c>
       <c r="H38" t="n">
-        <v>-55.78816970431294</v>
+        <v>-67.20720372732801</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1712,10 +1712,10 @@
         <v>0.02073732932611748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.006397086235182236</v>
+        <v>0.03137824639659204</v>
       </c>
       <c r="H39" t="n">
-        <v>-69.15183177842735</v>
+        <v>51.31286147379132</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1745,10 +1745,10 @@
         <v>-0.008490989520810347</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0005753516362875627</v>
+        <v>0.006677234343228602</v>
       </c>
       <c r="H40" t="n">
-        <v>106.7760257491479</v>
+        <v>178.6390599925196</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1778,10 +1778,10 @@
         <v>0.03535585401105827</v>
       </c>
       <c r="G41" t="n">
-        <v>0.009819843068733552</v>
+        <v>0.03427881320986012</v>
       </c>
       <c r="H41" t="n">
-        <v>-72.22569403736594</v>
+        <v>-3.046287047291473</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1811,10 +1811,10 @@
         <v>0.1336861257851496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1322269571980616</v>
+        <v>0.1315523975460724</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.091488423737454</v>
+        <v>-1.596073060346122</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1844,10 +1844,10 @@
         <v>0.1489763344906571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1449752262303823</v>
+        <v>0.1527579874918305</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.685734129487327</v>
+        <v>2.538425323795694</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1877,10 +1877,10 @@
         <v>-0.008511481271239187</v>
       </c>
       <c r="G44" t="n">
-        <v>0.009475087163798891</v>
+        <v>-0.008772972536095085</v>
       </c>
       <c r="H44" t="n">
-        <v>211.3212478751</v>
+        <v>-3.072218060791526</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1910,10 +1910,10 @@
         <v>-0.01097986505977733</v>
       </c>
       <c r="G45" t="n">
-        <v>0.005084800236594285</v>
+        <v>-0.0007497534914795126</v>
       </c>
       <c r="H45" t="n">
-        <v>146.3102252068789</v>
+        <v>93.17156005654302</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1943,10 +1943,10 @@
         <v>-0.003293045908710408</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.01057402027488038</v>
+        <v>-0.006803958036114187</v>
       </c>
       <c r="H46" t="n">
-        <v>-221.1015141608299</v>
+        <v>-106.615948417758</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>-0.009278481095242833</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02601085296065285</v>
+        <v>-0.007415655403798909</v>
       </c>
       <c r="H47" t="n">
-        <v>-180.3352476946778</v>
+        <v>20.07683878775171</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2009,10 +2009,10 @@
         <v>0.05027211201244799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06111628288279508</v>
+        <v>0.06015623641561887</v>
       </c>
       <c r="H48" t="n">
-        <v>21.57094746220717</v>
+        <v>19.66124757345275</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2042,10 +2042,10 @@
         <v>0.0660647836333926</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07175347568865321</v>
+        <v>0.06206414010345319</v>
       </c>
       <c r="H49" t="n">
-        <v>8.610778303351996</v>
+        <v>-6.055637073058213</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>0.1612576803179708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1364161820132598</v>
+        <v>0.1482925717581902</v>
       </c>
       <c r="H50" t="n">
-        <v>-15.40484661302834</v>
+        <v>-8.03999445745206</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2108,10 +2108,10 @@
         <v>0.1711149594717241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1529660957478109</v>
+        <v>0.1548138082436349</v>
       </c>
       <c r="H51" t="n">
-        <v>-10.60624026090028</v>
+        <v>-9.52643256814895</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2141,10 +2141,10 @@
         <v>-0.1604310016173561</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1880782984102244</v>
+        <v>-0.1715577974739761</v>
       </c>
       <c r="H52" t="n">
-        <v>-17.23313855436111</v>
+        <v>-6.935564662968637</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2174,10 +2174,10 @@
         <v>-0.1260545003542003</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1397260522627475</v>
+        <v>-0.1294462584653656</v>
       </c>
       <c r="H53" t="n">
-        <v>-10.84574677630037</v>
+        <v>-2.690707671391977</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2207,10 +2207,10 @@
         <v>0.09372239519925994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1117980072647329</v>
+        <v>0.106692625326148</v>
       </c>
       <c r="H54" t="n">
-        <v>19.28633175351848</v>
+        <v>13.83898704179775</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2240,10 +2240,10 @@
         <v>0.113080746643218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1107944668064794</v>
+        <v>0.1112856976080556</v>
       </c>
       <c r="H55" t="n">
-        <v>-2.021811762485136</v>
+        <v>-1.587404654150349</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2273,10 +2273,10 @@
         <v>-0.007300771504361519</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01972015669265693</v>
+        <v>-0.02256687437287529</v>
       </c>
       <c r="H56" t="n">
-        <v>-170.1105859959596</v>
+        <v>-209.1025977103067</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2306,10 +2306,10 @@
         <v>-0.02286739124119412</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.02750377474479362</v>
+        <v>-0.02637834686491473</v>
       </c>
       <c r="H57" t="n">
-        <v>-20.27508715225616</v>
+        <v>-15.35354683308103</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2339,10 +2339,10 @@
         <v>0.05638797256277781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04110046564293043</v>
+        <v>0.04962168846540198</v>
       </c>
       <c r="H58" t="n">
-        <v>-27.11129027174636</v>
+        <v>-11.99951654555907</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2372,10 +2372,10 @@
         <v>0.07181992597016275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08097584729081388</v>
+        <v>0.07047688978439125</v>
       </c>
       <c r="H59" t="n">
-        <v>12.74844160164536</v>
+        <v>-1.870004970945611</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2405,10 +2405,10 @@
         <v>0.06997395344439951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06960502182728184</v>
+        <v>0.07526740431833416</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.5272413504702349</v>
+        <v>7.564887523670885</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2438,10 +2438,10 @@
         <v>0.04752678553020755</v>
       </c>
       <c r="G61" t="n">
-        <v>0.08130271126037301</v>
+        <v>0.07002927229736566</v>
       </c>
       <c r="H61" t="n">
-        <v>71.06713688578374</v>
+        <v>47.34695712348514</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>0.07296032751184069</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05208887078238711</v>
+        <v>0.05672765506653829</v>
       </c>
       <c r="H62" t="n">
-        <v>-28.60658311335892</v>
+        <v>-22.2486288081259</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2504,10 +2504,10 @@
         <v>0.06539350454256343</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0547461991295388</v>
+        <v>0.06020291762802309</v>
       </c>
       <c r="H63" t="n">
-        <v>-16.28190060695477</v>
+        <v>-7.937465579875576</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2537,10 +2537,10 @@
         <v>-0.04141550755634531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.005402420019937308</v>
+        <v>-0.0299662225131561</v>
       </c>
       <c r="H64" t="n">
-        <v>86.95556244822697</v>
+        <v>27.64492268412403</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2570,10 +2570,10 @@
         <v>-0.04932370769039912</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.003915631975341612</v>
+        <v>0.009694747136775605</v>
       </c>
       <c r="H65" t="n">
-        <v>92.06135921508634</v>
+        <v>119.6553495078447</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2603,10 +2603,10 @@
         <v>0.01893397540736123</v>
       </c>
       <c r="G66" t="n">
-        <v>0.06823246015193106</v>
+        <v>0.04419971712923735</v>
       </c>
       <c r="H66" t="n">
-        <v>260.3704910560059</v>
+        <v>133.4412936442983</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2636,10 +2636,10 @@
         <v>0.02614988585447288</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05132886627199526</v>
+        <v>-0.00574132886836934</v>
       </c>
       <c r="H67" t="n">
-        <v>96.28715229445474</v>
+        <v>-121.9554643577433</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2669,10 +2669,10 @@
         <v>0.0005699533762532117</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.03571448348794981</v>
+        <v>-0.02588825344596269</v>
       </c>
       <c r="H68" t="n">
-        <v>-6366.211408857946</v>
+        <v>-4642.170381750907</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2702,10 +2702,10 @@
         <v>-0.01291230679249397</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01942987367203679</v>
+        <v>0.01391485300303564</v>
       </c>
       <c r="H69" t="n">
-        <v>-50.47561976556766</v>
+        <v>207.7642688223956</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2735,10 +2735,10 @@
         <v>-0.02744806811673924</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.01992507918868098</v>
+        <v>-0.04338650056215061</v>
       </c>
       <c r="H70" t="n">
-        <v>27.40808167650369</v>
+        <v>-58.06759287256104</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2768,10 +2768,10 @@
         <v>-0.05509195098979366</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06659038507724785</v>
+        <v>-0.05618025430817563</v>
       </c>
       <c r="H71" t="n">
-        <v>-20.87135031682649</v>
+        <v>-1.975430709621432</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2801,10 +2801,10 @@
         <v>-0.1483341461777897</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1377918717084664</v>
+        <v>-0.1467221920145771</v>
       </c>
       <c r="H72" t="n">
-        <v>7.107112381721993</v>
+        <v>1.086704716849592</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2834,10 +2834,10 @@
         <v>-0.1447898360031475</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1766709723679629</v>
+        <v>-0.1594948385759187</v>
       </c>
       <c r="H73" t="n">
-        <v>-22.01890494863352</v>
+        <v>-10.156101407872</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2867,10 +2867,10 @@
         <v>0.1260511056358319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1467574933048519</v>
+        <v>0.1272297770201104</v>
       </c>
       <c r="H74" t="n">
-        <v>16.42697822012114</v>
+        <v>0.9350742132193048</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2900,10 +2900,10 @@
         <v>0.1351719772156388</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1383480723548173</v>
+        <v>0.1508622974937688</v>
       </c>
       <c r="H75" t="n">
-        <v>2.349669809232495</v>
+        <v>11.6076723898914</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2933,10 +2933,10 @@
         <v>-0.03443794504108685</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.0878560261411637</v>
+        <v>-0.04146851843065622</v>
       </c>
       <c r="H76" t="n">
-        <v>-155.1140204107573</v>
+        <v>-20.41519428984922</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2966,10 +2966,10 @@
         <v>-0.04618700783972088</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.0620567886087444</v>
+        <v>-0.06310320470778977</v>
       </c>
       <c r="H77" t="n">
-        <v>-34.35983734667369</v>
+        <v>-36.6254443820475</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2999,10 +2999,10 @@
         <v>0.09217153817668759</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08608894621073446</v>
+        <v>0.08610082721727157</v>
       </c>
       <c r="H78" t="n">
-        <v>-6.599208482658879</v>
+        <v>-6.586318379301447</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3032,10 +3032,10 @@
         <v>0.0965044294726429</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1063874414704065</v>
+        <v>0.08707362625885948</v>
       </c>
       <c r="H79" t="n">
-        <v>10.24099313551742</v>
+        <v>-9.772404505491501</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3065,10 +3065,10 @@
         <v>-0.1624128583924336</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2137798715081172</v>
+        <v>-0.1719484673256274</v>
       </c>
       <c r="H80" t="n">
-        <v>-31.62743001023166</v>
+        <v>-5.871215510629816</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3098,10 +3098,10 @@
         <v>-0.2164484580182171</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2049090135341464</v>
+        <v>-0.1955303726566369</v>
       </c>
       <c r="H81" t="n">
-        <v>5.33126666261559</v>
+        <v>9.664233948859858</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3131,10 +3131,10 @@
         <v>0.1387462790863944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1652591466990643</v>
+        <v>0.162597476642189</v>
       </c>
       <c r="H82" t="n">
-        <v>19.1088855047139</v>
+        <v>17.19051329725603</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3164,10 +3164,10 @@
         <v>0.1646195949787939</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1769682345928579</v>
+        <v>0.1908089206885961</v>
       </c>
       <c r="H83" t="n">
-        <v>7.501318184906697</v>
+        <v>15.90899656458023</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3197,10 +3197,10 @@
         <v>0.01399502756006869</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0191571265030936</v>
+        <v>0.05743076112559856</v>
       </c>
       <c r="H84" t="n">
-        <v>36.88523599448757</v>
+        <v>310.3654735876539</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3230,14 +3230,14 @@
         <v>0.02263918370437177</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04087498526755463</v>
+        <v>0.04943497850950154</v>
       </c>
       <c r="H85" t="n">
-        <v>80.54973095015528</v>
+        <v>118.3602516549894</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>